--- a/map/Clue Map w starting locations.xlsx
+++ b/map/Clue Map w starting locations.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\post swap\Clue\map\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="7740"/>
   </bookViews>
@@ -150,8 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -286,20 +285,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,6 +307,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -357,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,9 +390,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,6 +425,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,97 +601,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="26" width="3.5703125" customWidth="1"/>
     <col min="28" max="28" width="13.7109375" customWidth="1"/>
     <col min="29" max="29" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="16" t="s">
+      <c r="F1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3"/>
+      <c r="Z1" s="2">
+        <v>0</v>
+      </c>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
@@ -706,83 +711,85 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:42">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="16" t="s">
+      <c r="L2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="3"/>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -800,83 +807,85 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:42">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="16" t="s">
+      <c r="L3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="19" t="s">
+      <c r="T3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="3"/>
+      <c r="Z3" s="2">
+        <v>2</v>
+      </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -894,83 +903,85 @@
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
     </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="16" t="s">
+      <c r="M4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="3"/>
+      <c r="Z4" s="2">
+        <v>3</v>
+      </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
         <v>0</v>
@@ -990,88 +1001,90 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="1:42">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="16" t="s">
+      <c r="M5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="17" t="s">
+      <c r="T5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="3"/>
+      <c r="Z5" s="2">
+        <v>4</v>
+      </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AC5" s="19" t="s">
+      <c r="AC5" s="18" t="s">
         <v>42</v>
       </c>
       <c r="AD5" s="2"/>
@@ -1090,88 +1103,90 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:42">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="16" t="s">
+      <c r="F6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="17" t="s">
+      <c r="T6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Z6" s="3"/>
+      <c r="Z6" s="2">
+        <v>5</v>
+      </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AC6" s="10"/>
+      <c r="AC6" s="9"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2" t="s">
@@ -1188,88 +1203,90 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
     </row>
-    <row r="7" spans="1:42">
-      <c r="A7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="17" t="s">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="19" t="s">
+      <c r="W7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Z7" s="3"/>
+      <c r="Z7" s="2">
+        <v>6</v>
+      </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC7" s="6"/>
+      <c r="AC7" s="5"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2" t="s">
@@ -1286,88 +1303,90 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="1:42">
-      <c r="A8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z8" s="3"/>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>7</v>
+      </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AC8" s="4"/>
+      <c r="AC8" s="3"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2" t="s">
@@ -1384,88 +1403,90 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="1:42">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="E9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="P9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="T9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="U9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="V9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="W9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="X9" s="20" t="s">
+      <c r="X9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="2">
+        <v>8</v>
+      </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="8"/>
+      <c r="AC9" s="7"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2" t="s">
@@ -1484,88 +1505,90 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:42">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="19" t="s">
+      <c r="G10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="P10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="U10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V10" s="20" t="s">
+      <c r="V10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="W10" s="20" t="s">
+      <c r="W10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="X10" s="20" t="s">
+      <c r="X10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Z10" s="3"/>
+      <c r="Z10" s="2">
+        <v>9</v>
+      </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AC10" s="9"/>
+      <c r="AC10" s="8"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2" t="s">
@@ -1582,88 +1605,90 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:42">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="19" t="s">
+      <c r="G11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S11" s="19" t="s">
+      <c r="P11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="T11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="U11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="20" t="s">
+      <c r="V11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="W11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="X11" s="20" t="s">
+      <c r="X11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Y11" s="20" t="s">
+      <c r="Y11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="3"/>
+      <c r="Z11" s="2">
+        <v>10</v>
+      </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AC11" s="12"/>
+      <c r="AC11" s="11"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -1678,88 +1703,90 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="19" t="s">
+      <c r="E12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" s="20" t="s">
+      <c r="P12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="T12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="V12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="W12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z12" s="3"/>
+      <c r="W12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>11</v>
+      </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="7"/>
+      <c r="AC12" s="6"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -1774,88 +1801,90 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="E13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S13" s="20" t="s">
+      <c r="P13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V13" s="20" t="s">
+      <c r="V13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="W13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z13" s="3"/>
+      <c r="W13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>12</v>
+      </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AC13" s="11"/>
+      <c r="AC13" s="10"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -1870,88 +1899,90 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z14" s="3"/>
+      <c r="G14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>13</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC14" s="5"/>
+      <c r="AC14" s="4"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -1966,83 +1997,85 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:42">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="19" t="s">
+      <c r="G15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z15" s="3"/>
+      <c r="P15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>14</v>
+      </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
@@ -2060,83 +2093,85 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:42">
-      <c r="A16" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="21" t="s">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="X16" s="19" t="s">
+      <c r="P16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Y16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z16" s="3"/>
+      <c r="Y16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>15</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2" t="s">
         <v>31</v>
@@ -2156,83 +2191,85 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42">
-      <c r="A17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="19" t="s">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="21" t="s">
+      <c r="H17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="X17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="3"/>
+      <c r="P17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>16</v>
+      </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2" t="s">
         <v>32</v>
@@ -2254,88 +2291,90 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42">
-      <c r="A18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="21" t="s">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="O18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="X18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="3"/>
+      <c r="P18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>17</v>
+      </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC18" s="19"/>
+      <c r="AC18" s="18"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -2350,83 +2389,85 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42">
-      <c r="A19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="21" t="s">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="W19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="X19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z19" s="3"/>
+      <c r="P19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="X19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>18</v>
+      </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
@@ -2444,83 +2485,85 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42">
-      <c r="A20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="21" t="s">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="W20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="X20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z20" s="3"/>
+      <c r="P20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>19</v>
+      </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
@@ -2538,83 +2581,85 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42">
-      <c r="A21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="21" t="s">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="O21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="W21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="X21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="3"/>
+      <c r="P21" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>20</v>
+      </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
@@ -2632,33 +2677,83 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
+        <v>11</v>
+      </c>
+      <c r="M22" s="2">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2">
+        <v>14</v>
+      </c>
+      <c r="P22" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>16</v>
+      </c>
+      <c r="R22" s="2">
+        <v>17</v>
+      </c>
+      <c r="S22" s="2">
+        <v>18</v>
+      </c>
+      <c r="T22" s="2">
+        <v>19</v>
+      </c>
+      <c r="U22" s="2">
+        <v>20</v>
+      </c>
+      <c r="V22" s="2">
+        <v>21</v>
+      </c>
+      <c r="W22" s="2">
+        <v>22</v>
+      </c>
+      <c r="X22" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -2676,7 +2771,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2720,7 +2815,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2764,7 +2859,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2808,7 +2903,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2852,7 +2947,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2896,7 +2991,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2940,7 +3035,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2984,7 +3079,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3028,7 +3123,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3072,7 +3167,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3116,7 +3211,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3160,7 +3255,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3204,7 +3299,7 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3248,7 +3343,7 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3292,7 +3387,7 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3336,7 +3431,7 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3380,7 +3475,7 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3424,7 +3519,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3468,7 +3563,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3512,7 +3607,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3556,7 +3651,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3600,7 +3695,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3644,7 +3739,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3688,7 +3783,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3732,7 +3827,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3776,7 +3871,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3820,7 +3915,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3864,7 +3959,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3908,7 +4003,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3952,7 +4047,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3996,7 +4091,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4040,7 +4135,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4084,7 +4179,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4128,7 +4223,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4172,7 +4267,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
@@ -4191,7 +4286,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
@@ -4210,7 +4305,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
@@ -4229,7 +4324,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
@@ -4248,7 +4343,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
@@ -4267,7 +4362,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
@@ -4286,7 +4381,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
@@ -4305,7 +4400,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
@@ -4331,24 +4426,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
